--- a/team_specific_matrix/Illinois St._A.xlsx
+++ b/team_specific_matrix/Illinois St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.203187250996016</v>
+        <v>0.2050473186119874</v>
       </c>
       <c r="C2">
-        <v>0.5657370517928287</v>
+        <v>0.555205047318612</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00796812749003984</v>
+        <v>0.006309148264984227</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1115537848605578</v>
+        <v>0.1230283911671924</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1115537848605578</v>
+        <v>0.110410094637224</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006802721088435374</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="C3">
-        <v>0.03401360544217687</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08843537414965986</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7006802721088435</v>
+        <v>0.7065217391304348</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1700680272108843</v>
+        <v>0.1793478260869565</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7307692307692307</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2692307692307692</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0972972972972973</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01081081081081081</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07567567567567568</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2054054054054054</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01621621621621622</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1837837837837838</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R6">
-        <v>0.0972972972972973</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S6">
-        <v>0.3135135135135135</v>
+        <v>0.3246753246753247</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1842105263157895</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008771929824561403</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="E7">
-        <v>0.008771929824561403</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="F7">
-        <v>0.07017543859649122</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09649122807017543</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02631578947368421</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1491228070175439</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="R7">
-        <v>0.05263157894736842</v>
+        <v>0.06711409395973154</v>
       </c>
       <c r="S7">
-        <v>0.4035087719298245</v>
+        <v>0.3758389261744967</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08059701492537313</v>
+        <v>0.09046454767726161</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01194029850746269</v>
+        <v>0.01466992665036675</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07462686567164178</v>
+        <v>0.06845965770171149</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1134328358208955</v>
+        <v>0.1295843520782396</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03283582089552239</v>
+        <v>0.0293398533007335</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2059701492537313</v>
+        <v>0.2029339853300733</v>
       </c>
       <c r="R8">
-        <v>0.07761194029850746</v>
+        <v>0.09290953545232274</v>
       </c>
       <c r="S8">
-        <v>0.4029850746268657</v>
+        <v>0.3716381418092909</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09154929577464789</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01408450704225352</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06338028169014084</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1197183098591549</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01408450704225352</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1901408450704225</v>
+        <v>0.1807909604519774</v>
       </c>
       <c r="R9">
-        <v>0.04225352112676056</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="S9">
-        <v>0.4647887323943662</v>
+        <v>0.4463276836158192</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1264737406216506</v>
+        <v>0.1259640102827763</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.022508038585209</v>
+        <v>0.02056555269922879</v>
       </c>
       <c r="E10">
-        <v>0.003215434083601286</v>
+        <v>0.002570694087403599</v>
       </c>
       <c r="F10">
-        <v>0.08038585209003216</v>
+        <v>0.0831191088260497</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.127545551982851</v>
+        <v>0.1251071122536418</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01822079314040729</v>
+        <v>0.01885175664095973</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.195069667738478</v>
+        <v>0.1910882604970009</v>
       </c>
       <c r="R10">
-        <v>0.05894962486602358</v>
+        <v>0.06341045415595545</v>
       </c>
       <c r="S10">
-        <v>0.3676312968917471</v>
+        <v>0.3693230505569837</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1395348837209302</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09302325581395349</v>
+        <v>0.08444444444444445</v>
       </c>
       <c r="K11">
-        <v>0.1918604651162791</v>
+        <v>0.1822222222222222</v>
       </c>
       <c r="L11">
-        <v>0.5523255813953488</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02325581395348837</v>
+        <v>0.01777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7395833333333334</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.21875</v>
+        <v>0.2348484848484849</v>
       </c>
       <c r="K12">
-        <v>0.02083333333333333</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="L12">
-        <v>0.01041666666666667</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01041666666666667</v>
+        <v>0.007575757575757576</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7096774193548387</v>
+        <v>0.675</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2580645161290323</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03225806451612903</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01754385964912281</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1578947368421053</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="I15">
-        <v>0.0935672514619883</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="J15">
-        <v>0.304093567251462</v>
+        <v>0.3155339805825243</v>
       </c>
       <c r="K15">
-        <v>0.06432748538011696</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02339181286549707</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08187134502923976</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2573099415204678</v>
+        <v>0.2524271844660194</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006756756756756757</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1959459459459459</v>
+        <v>0.185792349726776</v>
       </c>
       <c r="I16">
-        <v>0.0472972972972973</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="J16">
-        <v>0.4121621621621622</v>
+        <v>0.4371584699453552</v>
       </c>
       <c r="K16">
-        <v>0.1148648648648649</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01351351351351351</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="N16">
-        <v>0.006756756756756757</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="O16">
-        <v>0.05405405405405406</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1486486486486487</v>
+        <v>0.1530054644808743</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01834862385321101</v>
+        <v>0.02233250620347394</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1773700305810398</v>
+        <v>0.1662531017369727</v>
       </c>
       <c r="I17">
-        <v>0.1009174311926606</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="J17">
-        <v>0.4556574923547401</v>
+        <v>0.4416873449131514</v>
       </c>
       <c r="K17">
-        <v>0.06727828746177369</v>
+        <v>0.07196029776674938</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02752293577981652</v>
+        <v>0.02481389578163772</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06422018348623854</v>
+        <v>0.06947890818858561</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08868501529051988</v>
+        <v>0.1066997518610422</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02727272727272727</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1727272727272727</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="I18">
-        <v>0.1181818181818182</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>0.4968152866242038</v>
       </c>
       <c r="K18">
-        <v>0.06363636363636363</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00909090909090909</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.01818181818181818</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.07643312101910828</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0165929203539823</v>
+        <v>0.01524663677130045</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2234513274336283</v>
+        <v>0.2242152466367713</v>
       </c>
       <c r="I19">
-        <v>0.07964601769911504</v>
+        <v>0.08430493273542601</v>
       </c>
       <c r="J19">
-        <v>0.3849557522123894</v>
+        <v>0.3802690582959641</v>
       </c>
       <c r="K19">
-        <v>0.084070796460177</v>
+        <v>0.09058295964125561</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01991150442477876</v>
+        <v>0.02152466367713005</v>
       </c>
       <c r="N19">
-        <v>0.001106194690265487</v>
+        <v>0.0008968609865470852</v>
       </c>
       <c r="O19">
-        <v>0.08628318584070796</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1039823008849557</v>
+        <v>0.1022421524663677</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Illinois St._A.xlsx
+++ b/team_specific_matrix/Illinois St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2050473186119874</v>
+        <v>0.203030303030303</v>
       </c>
       <c r="C2">
-        <v>0.555205047318612</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006309148264984227</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1230283911671924</v>
+        <v>0.1242424242424242</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.110410094637224</v>
+        <v>0.1060606060606061</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005434782608695652</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="C3">
-        <v>0.03260869565217391</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07608695652173914</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7065217391304348</v>
+        <v>0.7010309278350515</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1793478260869565</v>
+        <v>0.1855670103092784</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09090909090909091</v>
+        <v>0.08502024291497975</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008658008658008658</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07792207792207792</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2077922077922078</v>
+        <v>0.2064777327935223</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01731601731601732</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1818181818181818</v>
+        <v>0.1781376518218623</v>
       </c>
       <c r="R6">
-        <v>0.09090909090909091</v>
+        <v>0.09716599190283401</v>
       </c>
       <c r="S6">
-        <v>0.3246753246753247</v>
+        <v>0.3319838056680162</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.174496644295302</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006711409395973154</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="E7">
-        <v>0.006711409395973154</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="F7">
-        <v>0.08053691275167785</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09395973154362416</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02013422818791946</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.174496644295302</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.06711409395973154</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="S7">
-        <v>0.3758389261744967</v>
+        <v>0.3782051282051282</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09046454767726161</v>
+        <v>0.08616780045351474</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01466992665036675</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06845965770171149</v>
+        <v>0.07256235827664399</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1295843520782396</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0293398533007335</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2029339853300733</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="R8">
-        <v>0.09290953545232274</v>
+        <v>0.08616780045351474</v>
       </c>
       <c r="S8">
-        <v>0.3716381418092909</v>
+        <v>0.3786848072562358</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.096045197740113</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01129943502824859</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05649717514124294</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1186440677966102</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01129943502824859</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1807909604519774</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R9">
-        <v>0.07909604519774012</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S9">
-        <v>0.4463276836158192</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1259640102827763</v>
+        <v>0.1239078633836378</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02056555269922879</v>
+        <v>0.01906274821286736</v>
       </c>
       <c r="E10">
-        <v>0.002570694087403599</v>
+        <v>0.00238284352660842</v>
       </c>
       <c r="F10">
-        <v>0.0831191088260497</v>
+        <v>0.08101667990468626</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1251071122536418</v>
+        <v>0.1262907069102462</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01885175664095973</v>
+        <v>0.01826846703733121</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1910882604970009</v>
+        <v>0.193010325655282</v>
       </c>
       <c r="R10">
-        <v>0.06341045415595545</v>
+        <v>0.06433677521842732</v>
       </c>
       <c r="S10">
-        <v>0.3693230505569837</v>
+        <v>0.3717235901509134</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1377777777777778</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08444444444444445</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="K11">
-        <v>0.1822222222222222</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L11">
-        <v>0.5777777777777777</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01777777777777778</v>
+        <v>0.0170940170940171</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7272727272727273</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2348484848484849</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="K12">
-        <v>0.01515151515151515</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="L12">
-        <v>0.01515151515151515</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.007575757575757576</v>
+        <v>0.007246376811594203</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.675</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01941747572815534</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1553398058252427</v>
+        <v>0.1545454545454545</v>
       </c>
       <c r="I15">
-        <v>0.1019417475728155</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="J15">
-        <v>0.3155339805825243</v>
+        <v>0.3227272727272728</v>
       </c>
       <c r="K15">
-        <v>0.06796116504854369</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01941747572815534</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06796116504854369</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2524271844660194</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00546448087431694</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.185792349726776</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="I16">
-        <v>0.03825136612021858</v>
+        <v>0.0418848167539267</v>
       </c>
       <c r="J16">
-        <v>0.4371584699453552</v>
+        <v>0.4397905759162304</v>
       </c>
       <c r="K16">
-        <v>0.1092896174863388</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01639344262295082</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="N16">
-        <v>0.00546448087431694</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="O16">
-        <v>0.04918032786885246</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1530054644808743</v>
+        <v>0.1518324607329843</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02233250620347394</v>
+        <v>0.02059496567505721</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1662531017369727</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="I17">
-        <v>0.09677419354838709</v>
+        <v>0.09610983981693363</v>
       </c>
       <c r="J17">
-        <v>0.4416873449131514</v>
+        <v>0.4393592677345537</v>
       </c>
       <c r="K17">
-        <v>0.07196029776674938</v>
+        <v>0.07093821510297482</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02481389578163772</v>
+        <v>0.02517162471395881</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06947890818858561</v>
+        <v>0.06864988558352403</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1066997518610422</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01910828025477707</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1656050955414013</v>
+        <v>0.1616766467065868</v>
       </c>
       <c r="I18">
-        <v>0.09554140127388536</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="J18">
-        <v>0.4968152866242038</v>
+        <v>0.4730538922155689</v>
       </c>
       <c r="K18">
-        <v>0.08917197452229299</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01910828025477707</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03821656050955414</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07643312101910828</v>
+        <v>0.08982035928143713</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01524663677130045</v>
+        <v>0.01493775933609959</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2242152466367713</v>
+        <v>0.2232365145228216</v>
       </c>
       <c r="I19">
-        <v>0.08430493273542601</v>
+        <v>0.08298755186721991</v>
       </c>
       <c r="J19">
-        <v>0.3802690582959641</v>
+        <v>0.3842323651452282</v>
       </c>
       <c r="K19">
-        <v>0.09058295964125561</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02152466367713005</v>
+        <v>0.02157676348547718</v>
       </c>
       <c r="N19">
-        <v>0.0008968609865470852</v>
+        <v>0.0008298755186721991</v>
       </c>
       <c r="O19">
-        <v>0.08071748878923767</v>
+        <v>0.08132780082987552</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1022421524663677</v>
+        <v>0.1037344398340249</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Illinois St._A.xlsx
+++ b/team_specific_matrix/Illinois St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.203030303030303</v>
+        <v>0.2018072289156627</v>
       </c>
       <c r="C2">
-        <v>0.5606060606060606</v>
+        <v>0.5632530120481928</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006060606060606061</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1242424242424242</v>
+        <v>0.1234939759036145</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1060606060606061</v>
+        <v>0.105421686746988</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005154639175257732</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="C3">
-        <v>0.03608247422680412</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07216494845360824</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7010309278350515</v>
+        <v>0.6989795918367347</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1855670103092784</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6129032258064516</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3870967741935484</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08502024291497975</v>
+        <v>0.08171206225680934</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008097165991902834</v>
+        <v>0.01167315175097276</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07692307692307693</v>
+        <v>0.07392996108949416</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2064777327935223</v>
+        <v>0.2023346303501946</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01619433198380567</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1781376518218623</v>
+        <v>0.178988326848249</v>
       </c>
       <c r="R6">
-        <v>0.09716599190283401</v>
+        <v>0.09727626459143969</v>
       </c>
       <c r="S6">
-        <v>0.3319838056680162</v>
+        <v>0.3346303501945525</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1666666666666667</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00641025641025641</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="E7">
-        <v>0.00641025641025641</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="F7">
-        <v>0.08333333333333333</v>
+        <v>0.08227848101265822</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.108974358974359</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01923076923076923</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="R7">
-        <v>0.0641025641025641</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="S7">
-        <v>0.3782051282051282</v>
+        <v>0.379746835443038</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08616780045351474</v>
+        <v>0.08676789587852494</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01360544217687075</v>
+        <v>0.01301518438177874</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07256235827664399</v>
+        <v>0.07592190889370933</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1292517006802721</v>
+        <v>0.1258134490238612</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0272108843537415</v>
+        <v>0.02603036876355748</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2063492063492063</v>
+        <v>0.2082429501084599</v>
       </c>
       <c r="R8">
-        <v>0.08616780045351474</v>
+        <v>0.08459869848156182</v>
       </c>
       <c r="S8">
-        <v>0.3786848072562358</v>
+        <v>0.3796095444685466</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01058201058201058</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05291005291005291</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.126984126984127</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01058201058201058</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1851851851851852</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="R9">
-        <v>0.07407407407407407</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="S9">
-        <v>0.4444444444444444</v>
+        <v>0.4343434343434344</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1239078633836378</v>
+        <v>0.1206496519721578</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01906274821286736</v>
+        <v>0.0185614849187935</v>
       </c>
       <c r="E10">
-        <v>0.00238284352660842</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="F10">
-        <v>0.08101667990468626</v>
+        <v>0.08275328692962104</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1262907069102462</v>
+        <v>0.1237432327919567</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01826846703733121</v>
+        <v>0.01778808971384378</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.193010325655282</v>
+        <v>0.1956689868522815</v>
       </c>
       <c r="R10">
-        <v>0.06433677521842732</v>
+        <v>0.06496519721577726</v>
       </c>
       <c r="S10">
-        <v>0.3717235901509134</v>
+        <v>0.3735498839907193</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1367521367521368</v>
+        <v>0.1350210970464135</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08547008547008547</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="K11">
-        <v>0.1794871794871795</v>
+        <v>0.1814345991561181</v>
       </c>
       <c r="L11">
-        <v>0.5811965811965812</v>
+        <v>0.5780590717299579</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0170940170940171</v>
+        <v>0.01687763713080169</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7246376811594203</v>
+        <v>0.7266187050359713</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2391304347826087</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="K12">
-        <v>0.01449275362318841</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="L12">
-        <v>0.01449275362318841</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.007246376811594203</v>
+        <v>0.007194244604316547</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6976744186046512</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2790697674418605</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1545454545454545</v>
+        <v>0.1535087719298246</v>
       </c>
       <c r="I15">
-        <v>0.1045454545454545</v>
+        <v>0.1008771929824561</v>
       </c>
       <c r="J15">
-        <v>0.3227272727272728</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="K15">
-        <v>0.06363636363636363</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06818181818181818</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2456140350877193</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005235602094240838</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1884816753926702</v>
+        <v>0.1917098445595855</v>
       </c>
       <c r="I16">
-        <v>0.0418848167539267</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="J16">
-        <v>0.4397905759162304</v>
+        <v>0.4404145077720207</v>
       </c>
       <c r="K16">
-        <v>0.1047120418848168</v>
+        <v>0.1036269430051813</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01570680628272251</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="N16">
-        <v>0.005235602094240838</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="O16">
-        <v>0.04712041884816754</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1518324607329843</v>
+        <v>0.150259067357513</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02059496567505721</v>
+        <v>0.01965065502183406</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1739130434782609</v>
+        <v>0.1790393013100437</v>
       </c>
       <c r="I17">
-        <v>0.09610983981693363</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="J17">
-        <v>0.4393592677345537</v>
+        <v>0.4410480349344978</v>
       </c>
       <c r="K17">
-        <v>0.07093821510297482</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02517162471395881</v>
+        <v>0.0240174672489083</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06864988558352403</v>
+        <v>0.06768558951965066</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1052631578947368</v>
+        <v>0.1026200873362445</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02994011976047904</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1616766467065868</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="I18">
-        <v>0.08982035928143713</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J18">
-        <v>0.4730538922155689</v>
+        <v>0.4742857142857143</v>
       </c>
       <c r="K18">
-        <v>0.09580838323353294</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01796407185628742</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04191616766467066</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08982035928143713</v>
+        <v>0.09142857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01493775933609959</v>
+        <v>0.01448109412711183</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2232365145228216</v>
+        <v>0.2244569589702333</v>
       </c>
       <c r="I19">
-        <v>0.08298755186721991</v>
+        <v>0.08608205953338696</v>
       </c>
       <c r="J19">
-        <v>0.3842323651452282</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="K19">
-        <v>0.08713692946058091</v>
+        <v>0.08527755430410297</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02157676348547718</v>
+        <v>0.02172164119066774</v>
       </c>
       <c r="N19">
-        <v>0.0008298755186721991</v>
+        <v>0.0008045052292839903</v>
       </c>
       <c r="O19">
-        <v>0.08132780082987552</v>
+        <v>0.08125502815768303</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1037344398340249</v>
+        <v>0.1053901850362027</v>
       </c>
     </row>
   </sheetData>
